--- a/RIZAP Issues/檢查結果-預收管理表_yearconract.xlsx
+++ b/RIZAP Issues/檢查結果-預收管理表_yearconract.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIZAP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebApp Projects\RIZAP-CRM\web-tools\RIZAP Issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138C714D-F293-462D-B2D5-85854B9EDC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D812D021-094F-425B-AAEA-18617708183B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="84">
   <si>
     <t>會員姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,13 +298,77 @@
   </si>
   <si>
     <t>浅野元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料庫無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTTW000388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contracted, 尚無上課資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTTW000032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTTW000030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無上課資料, 被到期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTTW000242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTTW000205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTTW000056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7: 經查證為正確</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTTW000300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTTW000318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTTW000257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uCare comment: Alpha2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料庫不一致，少了兩堂上課紀錄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -323,12 +386,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -363,9 +432,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,6 +459,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,23 +782,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC07B0F-A0A1-4BC9-9892-B4B1F88E32EB}">
-  <dimension ref="A5:P62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,36 +812,39 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="G6" s="8"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -769,19 +854,22 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,23 +879,26 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,19 +908,22 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,19 +933,22 @@
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -861,23 +958,26 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="8">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -887,19 +987,22 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -909,19 +1012,22 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -931,23 +1037,26 @@
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="8">
         <v>4</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
@@ -957,19 +1066,22 @@
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -979,19 +1091,22 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1004,23 +1119,26 @@
       <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="8">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1030,19 +1148,22 @@
       <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1052,19 +1173,22 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1077,23 +1201,26 @@
       <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="8">
         <v>6</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1103,19 +1230,22 @@
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1125,19 +1255,22 @@
       <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1147,23 +1280,26 @@
       <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="7">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="F23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="8">
+        <v>7</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1173,19 +1309,22 @@
       <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1195,19 +1334,22 @@
       <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1217,8 +1359,11 @@
       <c r="D26" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F26" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1228,8 +1373,11 @@
       <c r="D27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F27" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>255</v>
       </c>
@@ -1242,8 +1390,11 @@
       <c r="D28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F28" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>257</v>
       </c>
@@ -1256,8 +1407,11 @@
       <c r="D29" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F29" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>258</v>
       </c>
@@ -1270,8 +1424,11 @@
       <c r="D30" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F30" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>412</v>
       </c>
@@ -1284,8 +1441,11 @@
       <c r="D31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F31" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>458</v>
       </c>
@@ -1298,8 +1458,11 @@
       <c r="D32" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1309,8 +1472,11 @@
       <c r="D33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
@@ -1320,8 +1486,11 @@
       <c r="D34" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1331,8 +1500,11 @@
       <c r="D35" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1342,8 +1514,11 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>304</v>
       </c>
@@ -1356,8 +1531,11 @@
       <c r="D37" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>314</v>
       </c>
@@ -1370,8 +1548,11 @@
       <c r="D38" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1381,8 +1562,11 @@
       <c r="D39" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>43</v>
       </c>
@@ -1392,8 +1576,11 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
@@ -1403,8 +1590,11 @@
       <c r="D41" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1414,8 +1604,11 @@
       <c r="D42" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1425,8 +1618,11 @@
       <c r="D43" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1436,8 +1632,11 @@
       <c r="D44" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1447,8 +1646,11 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>49</v>
       </c>
@@ -1458,8 +1660,11 @@
       <c r="D46" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B47" s="3" t="s">
         <v>50</v>
       </c>
@@ -1469,8 +1674,11 @@
       <c r="D47" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
@@ -1480,8 +1688,11 @@
       <c r="D48" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>52</v>
       </c>
@@ -1491,8 +1702,11 @@
       <c r="D49" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>53</v>
       </c>
@@ -1502,8 +1716,11 @@
       <c r="D50" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>54</v>
       </c>
@@ -1513,8 +1730,11 @@
       <c r="D51" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>55</v>
       </c>
@@ -1524,8 +1744,11 @@
       <c r="D52" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>57</v>
       </c>
@@ -1535,8 +1758,11 @@
       <c r="D53" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B54" s="3" t="s">
         <v>58</v>
       </c>
@@ -1546,8 +1772,11 @@
       <c r="D54" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>59</v>
       </c>
@@ -1557,8 +1786,11 @@
       <c r="D55" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
@@ -1568,8 +1800,11 @@
       <c r="D56" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>61</v>
       </c>
@@ -1579,8 +1814,11 @@
       <c r="D57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>62</v>
       </c>
@@ -1590,8 +1828,11 @@
       <c r="D58" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>445</v>
       </c>
@@ -1604,8 +1845,11 @@
       <c r="D59" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>65</v>
       </c>
@@ -1615,8 +1859,11 @@
       <c r="D60" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>66</v>
       </c>
@@ -1626,8 +1873,11 @@
       <c r="D61" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>67</v>
       </c>
@@ -1637,33 +1887,37 @@
       <c r="D62" s="1">
         <v>2</v>
       </c>
+      <c r="F62" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G20:P22"/>
-    <mergeCell ref="G23:P25"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G5:P7"/>
-    <mergeCell ref="G8:P10"/>
-    <mergeCell ref="G11:P13"/>
-    <mergeCell ref="G14:P16"/>
-    <mergeCell ref="G17:P19"/>
+    <mergeCell ref="H20:Q22"/>
+    <mergeCell ref="H23:Q25"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H5:Q7"/>
+    <mergeCell ref="H8:Q10"/>
+    <mergeCell ref="H11:Q13"/>
+    <mergeCell ref="H14:Q16"/>
+    <mergeCell ref="H17:Q19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C211:C1048576" xr:uid="{8C1B2C95-889F-474B-86E2-7102B01B7C77}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C211:C1048576">
       <formula1>"黃,紅,藍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C210" xr:uid="{78F7413A-F25F-4D2B-A1BC-175D4D5E2F7D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C210">
       <formula1>"黃,紅,藍"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>